--- a/EBC.xlsx
+++ b/EBC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>Node</t>
   </si>
@@ -218,10 +218,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +508,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,11 +559,11 @@
       <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -745,6 +745,9 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1088,7 +1091,7 @@
       <c r="Q20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="3" t="s">
         <v>47</v>
       </c>
     </row>

--- a/EBC.xlsx
+++ b/EBC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dslez\Desktop\SI_Lab2_183272\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,9 +143,6 @@
     <t>Dimitar</t>
   </si>
   <si>
-    <t>dimitar</t>
-  </si>
-  <si>
     <t>dimitars</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>C@p@c1t0R</t>
+  </si>
+  <si>
+    <t>taska</t>
   </si>
 </sst>
 </file>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>37</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -884,10 +884,10 @@
         <v>30</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>30</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>30</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
